--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ELGA e-Medication MedicationRequests (eMedRequest)</t>
+    <t>2 ELGA e-Medication MedicationRequests (eMedRequest)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:01:25+00:00</t>
+    <t>2024-04-29T05:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="687">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:16:02+00:00</t>
+    <t>2024-04-29T05:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -757,7 +757,7 @@
     <t>MedicationRequest.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-medications)
+    <t xml:space="preserve">CodeableReference(Medication)
 </t>
   </si>
   <si>
@@ -770,10 +770,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>https://termgit.elga.gv.at/CodeSystem/asp-liste</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -2481,7 +2478,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5031,13 +5028,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y22" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -5070,27 +5065,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5113,16 +5108,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5172,7 +5167,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>89</v>
@@ -5187,27 +5182,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5230,13 +5225,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5287,7 +5282,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5311,7 +5306,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5319,10 +5314,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5345,16 +5340,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5404,7 +5399,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5419,27 +5414,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5462,16 +5457,16 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5521,7 +5516,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5536,16 +5531,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5553,10 +5548,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5582,10 +5577,10 @@
         <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5636,7 +5631,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5651,27 +5646,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5694,13 +5689,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5751,7 +5746,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5766,16 +5761,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5783,10 +5778,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5812,13 +5807,13 @@
         <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5868,7 +5863,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5892,7 +5887,7 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5900,10 +5895,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5929,13 +5924,13 @@
         <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5961,14 +5956,14 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5985,7 +5980,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -6000,16 +5995,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -6017,10 +6012,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6043,13 +6038,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6100,7 +6095,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6115,16 +6110,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6132,10 +6127,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6158,13 +6153,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6215,7 +6210,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6239,7 +6234,7 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6247,10 +6242,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6273,13 +6268,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6330,7 +6325,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6351,10 +6346,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6362,10 +6357,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6388,16 +6383,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6426,11 +6421,11 @@
         <v>193</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6447,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6462,27 +6457,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6508,13 +6503,13 @@
         <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6540,14 +6535,14 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6564,7 +6559,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6588,7 +6583,7 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6596,10 +6591,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6622,13 +6617,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6679,7 +6674,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6694,16 +6689,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6711,10 +6706,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6737,13 +6732,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6794,7 +6789,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6809,16 +6804,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6826,10 +6821,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6852,17 +6847,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6911,7 +6906,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6935,7 +6930,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6943,10 +6938,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6969,13 +6964,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7026,7 +7021,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7050,7 +7045,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -7058,10 +7053,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7084,16 +7079,16 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7143,7 +7138,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7167,7 +7162,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7175,10 +7170,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7204,10 +7199,10 @@
         <v>91</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7258,31 +7253,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI41" t="s" s="2">
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7290,10 +7285,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7322,7 +7317,7 @@
         <v>138</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>140</v>
@@ -7363,19 +7358,19 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AC42" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AC42" t="s" s="2">
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
+      <c r="AF42" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7399,7 +7394,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7407,14 +7402,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7436,10 +7431,10 @@
         <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>140</v>
@@ -7494,7 +7489,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7526,10 +7521,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7552,17 +7547,17 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7611,7 +7606,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7635,18 +7630,18 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7669,17 +7664,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7728,7 +7723,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7752,18 +7747,18 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7789,16 +7784,16 @@
         <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7826,28 +7821,28 @@
         <v>193</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7871,18 +7866,18 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7905,13 +7900,13 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7962,7 +7957,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7986,18 +7981,18 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8020,19 +8015,19 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8081,7 +8076,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8105,7 +8100,7 @@
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -8113,10 +8108,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8142,13 +8137,13 @@
         <v>230</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8198,16 +8193,16 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -8222,18 +8217,18 @@
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8259,13 +8254,13 @@
         <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8294,28 +8289,28 @@
         <v>193</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8324,7 +8319,7 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
@@ -8339,18 +8334,18 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>432</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8376,16 +8371,16 @@
         <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8413,28 +8408,28 @@
         <v>193</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8458,18 +8453,18 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8495,14 +8490,14 @@
         <v>189</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8530,28 +8525,28 @@
         <v>193</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8575,18 +8570,18 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8612,16 +8607,16 @@
         <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8649,28 +8644,28 @@
         <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z53" t="s" s="2">
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8694,18 +8689,18 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8728,13 +8723,13 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8785,7 +8780,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8809,18 +8804,18 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8843,13 +8838,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8900,31 +8895,31 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI55" t="s" s="2">
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8932,10 +8927,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8964,7 +8959,7 @@
         <v>138</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>140</v>
@@ -9005,19 +9000,19 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AC56" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AC56" t="s" s="2">
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9041,7 +9036,7 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -9049,10 +9044,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9078,14 +9073,14 @@
         <v>189</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9113,28 +9108,28 @@
         <v>193</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Z57" t="s" s="2">
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9161,15 +9156,15 @@
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9192,19 +9187,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9241,17 +9236,17 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9275,21 +9270,21 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
@@ -9311,19 +9306,19 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9372,7 +9367,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9384,30 +9379,30 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9433,10 +9428,10 @@
         <v>91</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9487,31 +9482,31 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI60" t="s" s="2">
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9519,10 +9514,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9551,7 +9546,7 @@
         <v>138</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>140</v>
@@ -9592,19 +9587,19 @@
         <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AC61" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AC61" t="s" s="2">
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
+      <c r="AF61" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9628,7 +9623,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9636,10 +9631,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9662,19 +9657,19 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9723,7 +9718,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9747,18 +9742,18 @@
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9784,20 +9779,20 @@
         <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9821,28 +9816,28 @@
         <v>113</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Z63" t="s" s="2">
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9866,18 +9861,18 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9900,17 +9895,17 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9959,7 +9954,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9983,18 +9978,18 @@
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10020,14 +10015,14 @@
         <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10076,16 +10071,16 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
@@ -10100,18 +10095,18 @@
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10137,16 +10132,16 @@
         <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10175,26 +10170,26 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
@@ -10202,7 +10197,7 @@
         <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>101</v>
@@ -10217,18 +10212,18 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10251,19 +10246,19 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10312,7 +10307,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10336,18 +10331,18 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>563</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10370,19 +10365,19 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10431,7 +10426,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10455,18 +10450,18 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>572</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10489,19 +10484,19 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10550,7 +10545,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10574,7 +10569,7 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10582,10 +10577,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10608,17 +10603,17 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10667,7 +10662,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10691,7 +10686,7 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10699,10 +10694,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10725,13 +10720,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10782,7 +10777,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10800,13 +10795,13 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10814,10 +10809,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10840,13 +10835,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10897,31 +10892,31 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10929,10 +10924,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10961,7 +10956,7 @@
         <v>138</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>140</v>
@@ -11014,7 +11009,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11038,7 +11033,7 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11046,14 +11041,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11075,10 +11070,10 @@
         <v>137</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>140</v>
@@ -11133,7 +11128,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11165,10 +11160,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11191,16 +11186,16 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11250,7 +11245,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11274,7 +11269,7 @@
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11282,10 +11277,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11308,13 +11303,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11365,31 +11360,31 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11397,10 +11392,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11429,7 +11424,7 @@
         <v>138</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>140</v>
@@ -11482,7 +11477,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11506,7 +11501,7 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11514,14 +11509,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11543,10 +11538,10 @@
         <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>140</v>
@@ -11601,7 +11596,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11633,10 +11628,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11659,13 +11654,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11716,7 +11711,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11740,7 +11735,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11748,10 +11743,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11774,13 +11769,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11831,7 +11826,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11855,7 +11850,7 @@
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11863,10 +11858,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11889,13 +11884,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11946,7 +11941,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11970,7 +11965,7 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11978,10 +11973,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12004,19 +11999,19 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12065,7 +12060,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12083,13 +12078,13 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12097,10 +12092,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12123,16 +12118,16 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12182,7 +12177,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12200,24 +12195,24 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>629</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12240,13 +12235,13 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12297,7 +12292,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12315,24 +12310,24 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>635</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12355,16 +12350,16 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12414,7 +12409,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12432,13 +12427,13 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12446,10 +12441,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12472,13 +12467,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12529,7 +12524,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12550,10 +12545,10 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12561,10 +12556,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12587,13 +12582,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12644,7 +12639,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12668,7 +12663,7 @@
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12676,10 +12671,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12705,10 +12700,10 @@
         <v>189</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12739,7 +12734,7 @@
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -12757,7 +12752,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12781,7 +12776,7 @@
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12789,10 +12784,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12815,13 +12810,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12872,7 +12867,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12890,13 +12885,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12904,10 +12899,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12930,13 +12925,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12987,31 +12982,31 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI90" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AG90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI90" t="s" s="2">
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13019,10 +13014,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13051,7 +13046,7 @@
         <v>138</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>140</v>
@@ -13104,7 +13099,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -13128,7 +13123,7 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13136,14 +13131,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13165,10 +13160,10 @@
         <v>137</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>140</v>
@@ -13223,7 +13218,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -13255,10 +13250,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13281,16 +13276,16 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13316,14 +13311,14 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Y93" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="Y93" t="s" s="2">
+      <c r="Z93" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>671</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13340,7 +13335,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>89</v>
@@ -13358,24 +13353,24 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>673</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13401,10 +13396,10 @@
         <v>189</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13434,11 +13429,11 @@
         <v>193</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>678</v>
-      </c>
       <c r="AA94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13455,7 +13450,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13479,18 +13474,18 @@
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>680</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13513,16 +13508,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13572,7 +13567,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13587,16 +13582,16 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="698">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:29:51+00:00</t>
+    <t>2024-04-29T05:40:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -792,6 +792,72 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1 Requested Give Code / RXC-2 Component Code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1195,39 +1261,7 @@
     <t>MedicationRequest.dosageInstruction.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.modifierExtension</t>
@@ -2459,7 +2493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO95"/>
+  <dimension ref="A1:AO99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5093,7 +5127,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -5105,20 +5139,18 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -5167,46 +5199,46 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AO23" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5225,15 +5257,17 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -5270,19 +5304,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5294,7 +5328,7 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -5306,7 +5340,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5314,10 +5348,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5325,7 +5359,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
@@ -5337,20 +5371,18 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5414,27 +5446,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5445,7 +5477,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5454,20 +5486,18 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5516,13 +5546,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -5531,16 +5561,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5548,10 +5578,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5559,7 +5589,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -5574,15 +5604,17 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5631,10 +5663,10 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>89</v>
@@ -5646,27 +5678,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5677,7 +5709,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5686,16 +5718,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5746,13 +5778,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -5761,16 +5793,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5778,10 +5810,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5801,19 +5833,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5863,7 +5895,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5878,27 +5910,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5909,7 +5941,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5918,19 +5950,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5956,13 +5988,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5980,13 +6012,13 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
@@ -5995,16 +6027,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -6012,10 +6044,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6023,7 +6055,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -6035,16 +6067,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6095,13 +6127,13 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
@@ -6110,27 +6142,27 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6141,7 +6173,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6150,16 +6182,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6210,13 +6242,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -6225,16 +6257,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6242,10 +6274,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6265,18 +6297,20 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -6325,7 +6359,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6346,10 +6380,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6357,10 +6391,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6371,7 +6405,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6380,19 +6414,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6418,13 +6452,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6442,13 +6476,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -6457,27 +6491,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6485,7 +6519,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -6500,17 +6534,15 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6535,13 +6567,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6559,13 +6591,13 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -6574,16 +6606,16 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6591,10 +6623,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6617,13 +6649,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6674,7 +6706,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6689,7 +6721,7 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
@@ -6698,7 +6730,7 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6706,10 +6738,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6720,7 +6752,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6732,13 +6764,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6789,13 +6821,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -6804,16 +6836,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6821,10 +6853,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6835,7 +6867,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6847,18 +6879,18 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6882,13 +6914,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6906,13 +6938,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6921,27 +6953,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6964,15 +6996,17 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6997,13 +7031,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -7021,7 +7055,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7045,7 +7079,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -7053,10 +7087,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7079,17 +7113,15 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7138,7 +7170,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7153,7 +7185,7 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -7162,7 +7194,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7170,10 +7202,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7184,7 +7216,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7196,13 +7228,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7253,31 +7285,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7285,21 +7317,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7311,18 +7343,18 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>138</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7358,43 +7390,43 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7402,46 +7434,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>137</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7489,19 +7517,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7513,7 +7541,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7521,10 +7549,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7535,7 +7563,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7544,21 +7572,21 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7606,13 +7634,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7630,18 +7658,18 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7661,21 +7689,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>91</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
+        <v>248</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7723,7 +7749,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7732,10 +7758,10 @@
         <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7747,22 +7773,22 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>251</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7778,23 +7804,21 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>138</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
+        <v>253</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7818,31 +7842,31 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>410</v>
+        <v>257</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7854,7 +7878,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7866,50 +7890,54 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>394</v>
+        <v>251</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7957,19 +7985,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7981,18 +8009,18 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>394</v>
+        <v>134</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8015,19 +8043,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8076,7 +8102,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8100,18 +8126,18 @@
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8134,18 +8160,18 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>230</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8193,7 +8219,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8202,7 +8228,7 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -8217,18 +8243,18 @@
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8254,15 +8280,17 @@
         <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8289,10 +8317,10 @@
         <v>193</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8310,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8319,7 +8347,7 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
@@ -8334,18 +8362,18 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8368,20 +8396,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8405,13 +8429,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8429,7 +8453,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8453,18 +8477,18 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8487,17 +8511,19 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8522,13 +8548,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8546,7 +8572,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8570,18 +8596,18 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8604,20 +8630,18 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8641,13 +8665,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8665,7 +8689,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8674,7 +8698,7 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>101</v>
@@ -8689,18 +8713,18 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>467</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8723,15 +8747,17 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>469</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8756,13 +8782,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8780,7 +8806,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8789,7 +8815,7 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>101</v>
@@ -8804,18 +8830,18 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>474</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8835,19 +8861,23 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8871,13 +8901,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8895,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>374</v>
+        <v>457</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8904,10 +8934,10 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8919,29 +8949,29 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8950,21 +8980,21 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>138</v>
+        <v>461</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8988,43 +9018,43 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -9036,18 +9066,18 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>376</v>
+        <v>467</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9073,14 +9103,16 @@
         <v>189</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9108,10 +9140,10 @@
         <v>193</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9129,7 +9161,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9153,18 +9185,18 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9175,7 +9207,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9187,20 +9219,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9236,23 +9264,25 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -9270,22 +9300,20 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9306,20 +9334,16 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>497</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>498</v>
+        <v>247</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9367,7 +9391,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>492</v>
+        <v>249</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9376,10 +9400,10 @@
         <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9391,29 +9415,29 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9425,15 +9449,17 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9470,31 +9496,31 @@
         <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>257</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9506,7 +9532,7 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9514,21 +9540,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9537,21 +9563,21 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>138</v>
+        <v>489</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9575,43 +9601,43 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9623,18 +9649,18 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9657,19 +9683,19 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9706,19 +9732,17 @@
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9742,20 +9766,22 @@
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9764,36 +9790,36 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>508</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q63" t="s" s="2">
-        <v>523</v>
-      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9813,13 +9839,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9837,7 +9863,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9849,7 +9875,7 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>512</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9861,18 +9887,18 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9892,21 +9918,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>397</v>
+        <v>91</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>531</v>
+        <v>247</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>532</v>
+        <v>248</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9954,7 +9978,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>534</v>
+        <v>249</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9963,10 +9987,10 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9978,29 +10002,29 @@
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>535</v>
+        <v>251</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -10009,21 +10033,21 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>539</v>
+        <v>138</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -10059,31 +10083,31 @@
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>542</v>
+        <v>257</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10095,18 +10119,18 @@
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>544</v>
+        <v>251</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10129,19 +10153,19 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>109</v>
+        <v>521</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10166,11 +10190,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10188,7 +10214,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10197,7 +10223,7 @@
         <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>101</v>
@@ -10212,18 +10238,18 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10234,36 +10260,36 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>555</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10283,13 +10309,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10307,7 +10333,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10331,18 +10357,18 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>562</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10353,7 +10379,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10365,19 +10391,17 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>564</v>
+        <v>408</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10426,13 +10450,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -10450,18 +10474,18 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10484,19 +10508,17 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>497</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10545,7 +10567,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10554,7 +10576,7 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
@@ -10569,18 +10591,18 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10603,17 +10625,19 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>497</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10638,13 +10662,11 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10662,7 +10684,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10671,7 +10693,7 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>101</v>
@@ -10686,18 +10708,18 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10717,19 +10739,23 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10777,7 +10803,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10795,24 +10821,24 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10823,7 +10849,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10832,19 +10858,23 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>397</v>
+        <v>575</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>372</v>
+        <v>576</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10892,19 +10922,19 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>374</v>
+        <v>580</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10916,29 +10946,29 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>376</v>
+        <v>581</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10947,21 +10977,23 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>138</v>
+        <v>584</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>378</v>
+        <v>585</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
       </c>
@@ -11009,19 +11041,19 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>382</v>
+        <v>588</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -11033,7 +11065,7 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>376</v>
+        <v>589</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11041,45 +11073,43 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>385</v>
+        <v>591</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>146</v>
+        <v>593</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11128,19 +11158,19 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -11152,7 +11182,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>134</v>
+        <v>589</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11160,10 +11190,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11186,17 +11216,15 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11245,7 +11273,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11263,13 +11291,13 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11277,10 +11305,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11303,13 +11331,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11360,7 +11388,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11369,7 +11397,7 @@
         <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11384,7 +11412,7 @@
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11392,10 +11420,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11424,7 +11452,7 @@
         <v>138</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>140</v>
@@ -11477,7 +11505,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>382</v>
+        <v>257</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11501,7 +11529,7 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11509,14 +11537,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11538,10 +11566,10 @@
         <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>140</v>
@@ -11596,7 +11624,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11628,10 +11656,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11654,15 +11682,17 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11711,7 +11741,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11735,7 +11765,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11743,10 +11773,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11769,13 +11799,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>607</v>
+        <v>408</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>608</v>
+        <v>247</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>609</v>
+        <v>248</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11826,7 +11856,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>606</v>
+        <v>249</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11835,10 +11865,10 @@
         <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11850,7 +11880,7 @@
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>610</v>
+        <v>251</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11865,14 +11895,14 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11884,15 +11914,17 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>607</v>
+        <v>137</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>612</v>
+        <v>138</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11941,19 +11973,19 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>611</v>
+        <v>257</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11965,7 +11997,7 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>610</v>
+        <v>251</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11973,45 +12005,45 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>615</v>
+        <v>396</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>616</v>
+        <v>397</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>617</v>
+        <v>140</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>618</v>
+        <v>146</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12060,31 +12092,31 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>620</v>
+        <v>134</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12092,10 +12124,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12118,17 +12150,15 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>622</v>
+        <v>508</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12177,7 +12207,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12195,24 +12225,24 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>626</v>
+        <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>628</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12235,13 +12265,13 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>497</v>
+        <v>618</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12292,7 +12322,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12310,24 +12340,24 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>632</v>
+        <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>634</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12350,17 +12380,15 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12409,7 +12437,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12427,13 +12455,13 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12441,10 +12469,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12467,16 +12495,20 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>642</v>
+        <v>382</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12524,7 +12556,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12542,13 +12574,13 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>79</v>
+        <v>630</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12556,10 +12588,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12570,7 +12602,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12582,15 +12614,17 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>348</v>
+        <v>633</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12639,13 +12673,13 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
@@ -12657,24 +12691,24 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>79</v>
+        <v>639</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12697,13 +12731,13 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>189</v>
+        <v>508</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12730,11 +12764,13 @@
         <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -12752,7 +12788,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12770,24 +12806,24 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12810,15 +12846,17 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12867,7 +12905,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12885,13 +12923,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12899,10 +12937,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12925,13 +12963,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>397</v>
+        <v>653</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>372</v>
+        <v>654</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>373</v>
+        <v>655</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12982,7 +13020,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>374</v>
+        <v>652</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12991,10 +13029,10 @@
         <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -13003,10 +13041,10 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>376</v>
+        <v>656</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13014,14 +13052,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13040,17 +13078,15 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>137</v>
+        <v>369</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>138</v>
+        <v>658</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13099,7 +13135,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>382</v>
+        <v>657</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -13111,7 +13147,7 @@
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -13123,7 +13159,7 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>376</v>
+        <v>660</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13131,46 +13167,42 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>385</v>
+        <v>662</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13194,13 +13226,11 @@
         <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>79</v>
@@ -13218,19 +13248,19 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -13242,7 +13272,7 @@
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>134</v>
+        <v>665</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13250,10 +13280,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13261,7 +13291,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>89</v>
@@ -13276,17 +13306,15 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>664</v>
+        <v>596</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>667</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13311,13 +13339,13 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>668</v>
+        <v>79</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>669</v>
+        <v>79</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>670</v>
+        <v>79</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13335,10 +13363,10 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>89</v>
@@ -13353,24 +13381,24 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>672</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13393,13 +13421,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>189</v>
+        <v>408</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>674</v>
+        <v>247</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>675</v>
+        <v>248</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13426,13 +13454,13 @@
         <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>676</v>
+        <v>79</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>677</v>
+        <v>79</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>79</v>
@@ -13450,7 +13478,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>673</v>
+        <v>249</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13459,37 +13487,37 @@
         <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>678</v>
+        <v>251</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13508,16 +13536,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>681</v>
+        <v>137</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>682</v>
+        <v>138</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>683</v>
+        <v>253</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>684</v>
+        <v>140</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13567,7 +13595,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>680</v>
+        <v>257</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13579,21 +13607,489 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK95" t="s" s="2">
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="AO95" t="s" s="2">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:40:46+00:00</t>
+    <t>2024-04-29T05:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:49:30+00:00</t>
+    <t>2024-04-29T07:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="817">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T07:46:22+00:00</t>
+    <t>2024-04-29T14:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -485,7 +485,7 @@
 </t>
   </si>
   <si>
-    <t>External ids for this request</t>
+    <t xml:space="preserve"> MedicationRequest ID = {eMed-ID}_{locally assigned ID} |  Verordnungs ID = {eMed-ID}_{lokal vergebene ID}</t>
   </si>
   <si>
     <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
@@ -535,7 +535,7 @@
 </t>
   </si>
   <si>
-    <t>In case of a modification, takes a reference to the MedicationRequests that has been replaced. | Im Falle einer Änderung wird ein Verweis auf die ersetzte Verordnungen/MedicationRequests aufgenommen.</t>
+    <t>Reference to an order/prescription that is being replaced by this MedicationRequest</t>
   </si>
   <si>
     <t>Reference to an order/prescription that is being replaced by this MedicationRequest.</t>
@@ -986,67 +986,6 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
-</t>
-  </si>
-  <si>
-    <t>Who/What requested the Request</t>
-  </si>
-  <si>
-    <t>The individual, organization, or device that initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>MedicationRequest.reported</t>
-  </si>
-  <si>
-    <t>Reported rather than primary record</t>
-  </si>
-  <si>
-    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record.  It may also indicate the source of the report.</t>
-  </si>
-  <si>
-    <t>If not populated, then assume that this is the original record and not reported</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performerType</t>
-  </si>
-  <si>
-    <t>Desired kind of performer of the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates the type of performer of the administration of the medication.</t>
-  </si>
-  <si>
-    <t>If specified without indicating a performer, this indicates that the performer must be of the specified type. If specified with a performer then it indicates the requirements of the performer if the designated performer is not available.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Identifies the type of individual that is desired to administer the medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-intended-performer-role</t>
-  </si>
-  <si>
-    <t>Request.performerType</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
@@ -1054,6 +993,67 @@
     <t>ToDo create austrian practitioner with hl7 austria. || The authorizing practitioner for this prescription, identified by their OID according to GDA Index. | Der approbierende Arzt für diese Verschreibung, identifiziert durch seine OID gemäß GDA-Index.</t>
   </si>
   <si>
+    <t>The individual, organization, or device that initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>MedicationRequest.reported</t>
+  </si>
+  <si>
+    <t>Reported rather than primary record</t>
+  </si>
+  <si>
+    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record.  It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>If not populated, then assume that this is the original record and not reported</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>MedicationRequest.performerType</t>
+  </si>
+  <si>
+    <t>Desired kind of performer of the medication administration</t>
+  </si>
+  <si>
+    <t>Indicates the type of performer of the administration of the medication.</t>
+  </si>
+  <si>
+    <t>If specified without indicating a performer, this indicates that the performer must be of the specified type. If specified with a performer then it indicates the requirements of the performer if the designated performer is not available.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Identifies the type of individual that is desired to administer the medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-intended-performer-role</t>
+  </si>
+  <si>
+    <t>Request.performerType</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|DeviceDefinition|RelatedPerson|CareTeam|HealthcareService)
+</t>
+  </si>
+  <si>
+    <t>Intended performer of administration</t>
+  </si>
+  <si>
     <t>The specified desired performer of the medication treatment (e.g. the performer of the medication administration).  For devices, this is the device that is intended to perform the administration of the medication.  An IV Pump would be an example of a device that is performing the administration.  Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
   </si>
   <si>
@@ -1223,7 +1223,7 @@
 </t>
   </si>
   <si>
-    <t>Period over which the medication is to be taken</t>
+    <t>Period over which the medication is to be taken | Zeitraum, über den das Medikament eingenommen werden soll</t>
   </si>
   <si>
     <t>The period over which the medication is to be taken.  Where there are multiple dosageInstruction lines (for example, tapering doses), this is the earliest date and the latest end date of the dosageInstructions.</t>
@@ -1374,7 +1374,7 @@
 </t>
   </si>
   <si>
-    <t>When medication should be administered</t>
+    <t>When medication should be administered | Wann Medikamente verabreicht werden sollten</t>
   </si>
   <si>
     <t>When medication should be administered.</t>
@@ -1390,6 +1390,394 @@
   </si>
   <si>
     <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.event</t>
+  </si>
+  <si>
+    <t>When the event occurs</t>
+  </si>
+  <si>
+    <t>Identifies specific times when the event occurs.</t>
+  </si>
+  <si>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+  </si>
+  <si>
+    <t>Timing.event</t>
+  </si>
+  <si>
+    <t>QLIST&lt;TS&gt;</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>When the event is to occur</t>
+  </si>
+  <si>
+    <t>A set of rules that describe when the event is scheduled.</t>
+  </si>
+  <si>
+    <t>Many timing schedules are determined by regular repetitions.</t>
+  </si>
+  <si>
+    <t>Timing.repeat</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and when.select($this in ('C' | 'CM' | 'CD' | 'CV')).allFalse())}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+  </si>
+  <si>
+    <t>Implies PIVL or EIVL</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>Duration
+RangePeriod</t>
+  </si>
+  <si>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of times to repeat</t>
+  </si>
+  <si>
+    <t>A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
+  </si>
+  <si>
+    <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim-8
+</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Maximum number of times to repeat</t>
+  </si>
+  <si>
+    <t>If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>How long when it happens</t>
+  </si>
+  <si>
+    <t>How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
+  </si>
+  <si>
+    <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
+  </si>
+  <si>
+    <t>Some activities are not instantaneous and need to be maintained for a period of time.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>tim-7
+tim-1tim-4</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>How long when it happens (Max)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim-7
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>The units of time for the duration, in UCUM units
+Normal practice is to use the 'mo' code as a calendar month when calculating the next occurrence.</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time|5.0.0</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim-1
+</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Repetitions within the period | Wiederholungen innerhalb der Dauer</t>
+  </si>
+  <si>
+    <t>The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Event occurs up to frequencyMax times per period</t>
+  </si>
+  <si>
+    <t>If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>A defined period with its duration to which the frequency applies | Ein bestimmter Zeitraum mit seiner Dauer, für den die Wiederholungen gelten</t>
+  </si>
+  <si>
+    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>tim-6
+tim-5tim-2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Upper limit of period (3-4 hours)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim-6
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>Unit of period | Einheit zur Dauer</t>
+  </si>
+  <si>
+    <t>The units of time for the period in UCUM units
+Normal practice is to use the 'mo' code as a calendar month when calculating the next occurrence.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim-2
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>If one or more days of week is provided, then the action happens only on the specified day(s).</t>
+  </si>
+  <si>
+    <t>If no days are specified, the action is assumed to happen every day as otherwise specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|5.0.0</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Time of day for action</t>
+  </si>
+  <si>
+    <t>Specified time of day for action to take place.</t>
+  </si>
+  <si>
+    <t>When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. If there's a timeOfDay, there cannot be a when, or vice versa.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim-10
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>Code for time period of occurrence</t>
+  </si>
+  <si>
+    <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
+  </si>
+  <si>
+    <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
+  </si>
+  <si>
+    <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
+  </si>
+  <si>
+    <t>Real-world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing|5.0.0</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>tim-9
+tim-10</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Minutes from event (before or after)</t>
+  </si>
+  <si>
+    <t>The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim-9
+</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code</t>
+  </si>
+  <si>
+    <t>C | BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>A code for the timing schedule (or just text in code.text). Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
+  </si>
+  <si>
+    <t>BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Code for a known / defined timing pattern.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.asNeeded</t>
@@ -1528,10 +1916,6 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
-</t>
-  </si>
-  <si>
     <t>Amount of medication administered, to be administered or typical amount to be administered</t>
   </si>
   <si>
@@ -1654,10 +2038,6 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
   </si>
   <si>
     <t>Numerical value (with implicit precision)</t>
@@ -2000,10 +2380,6 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
     <t>Number of refills authorized</t>
   </si>
   <si>
@@ -2139,9 +2515,6 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because whether substitution is allow or not, it cannot be ignored.</t>
-  </si>
-  <si>
-    <t>preferred</t>
   </si>
   <si>
     <t>Identifies the type of substitution allowed.</t>
@@ -2493,7 +2866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO99"/>
+  <dimension ref="A1:AO122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2512,7 +2885,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.30078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3733,10 +4106,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -6170,7 +6543,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>89</v>
@@ -6519,10 +6892,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -8627,20 +9000,18 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8689,7 +9060,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8698,10 +9069,10 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8713,22 +9084,22 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>441</v>
+        <v>251</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8744,19 +9115,19 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>446</v>
+        <v>140</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8782,31 +9153,31 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>449</v>
+        <v>257</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8815,10 +9186,10 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8830,53 +9201,53 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>441</v>
+        <v>251</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>453</v>
+        <v>140</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>454</v>
+        <v>146</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8901,13 +9272,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8925,19 +9296,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8949,18 +9320,18 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>458</v>
+        <v>134</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8971,7 +9342,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8983,17 +9354,17 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9018,13 +9389,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -9042,13 +9413,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -9066,18 +9437,18 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9100,19 +9471,17 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>189</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9137,13 +9506,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9161,7 +9530,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9173,7 +9542,7 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9185,18 +9554,18 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9207,7 +9576,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9216,16 +9585,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>480</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>481</v>
+        <v>247</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>482</v>
+        <v>248</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9276,19 +9645,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>483</v>
+        <v>249</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9300,29 +9669,29 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>484</v>
+        <v>251</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9334,15 +9703,17 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>408</v>
+        <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9379,31 +9750,31 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9423,21 +9794,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9446,20 +9817,18 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>138</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9496,31 +9865,31 @@
         <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>257</v>
+        <v>458</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9532,7 +9901,7 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>251</v>
+        <v>459</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9540,10 +9909,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9566,17 +9935,19 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>189</v>
+        <v>461</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9601,13 +9972,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9625,7 +9996,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9634,7 +10005,7 @@
         <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>101</v>
@@ -9649,18 +10020,18 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9683,20 +10054,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9732,17 +10099,19 @@
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9751,7 +10120,7 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>101</v>
@@ -9766,22 +10135,20 @@
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9799,22 +10166,22 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9863,7 +10230,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9872,10 +10239,10 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>512</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9887,18 +10254,18 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9918,19 +10285,23 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>474</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
+        <v>483</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9978,7 +10349,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>249</v>
+        <v>485</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9987,10 +10358,10 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>250</v>
+        <v>486</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -10002,7 +10373,7 @@
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>251</v>
+        <v>481</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10010,21 +10381,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -10033,20 +10404,18 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>138</v>
+        <v>488</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10071,43 +10440,43 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>257</v>
+        <v>492</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10119,7 +10488,7 @@
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>251</v>
+        <v>494</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10127,10 +10496,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10153,24 +10522,22 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10214,7 +10581,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10238,18 +10605,18 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10260,36 +10627,32 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>109</v>
+        <v>461</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q67" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10309,13 +10672,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10333,7 +10696,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10357,18 +10720,18 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10391,18 +10754,16 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10450,7 +10811,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10459,7 +10820,7 @@
         <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>101</v>
@@ -10474,18 +10835,18 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>546</v>
+        <v>481</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10508,18 +10869,16 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>552</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10567,7 +10926,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10576,7 +10935,7 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
@@ -10591,18 +10950,18 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>555</v>
+        <v>481</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10628,17 +10987,13 @@
         <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10664,9 +11019,11 @@
       <c r="X70" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y70" s="2"/>
+      <c r="Y70" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>562</v>
+        <v>491</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10684,7 +11041,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10693,7 +11050,7 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>101</v>
@@ -10708,18 +11065,18 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10730,7 +11087,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10742,20 +11099,18 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>566</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10779,13 +11134,11 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10803,13 +11156,13 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
@@ -10827,18 +11180,18 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>572</v>
+        <v>251</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10861,20 +11214,18 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10922,7 +11273,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10931,7 +11282,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>101</v>
@@ -10946,18 +11297,18 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>581</v>
+        <v>251</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10968,7 +11319,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10980,19 +11331,19 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>508</v>
+        <v>109</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>587</v>
+        <v>536</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11017,13 +11368,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -11041,16 +11392,16 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>101</v>
@@ -11065,7 +11416,7 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11073,10 +11424,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11099,18 +11450,16 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>593</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11158,7 +11507,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11167,7 +11516,7 @@
         <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>101</v>
@@ -11182,7 +11531,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11190,10 +11539,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>595</v>
+        <v>549</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>595</v>
+        <v>549</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11213,18 +11562,20 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>596</v>
+        <v>189</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>597</v>
+        <v>550</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11249,13 +11600,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -11273,7 +11624,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11291,13 +11642,13 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11305,10 +11656,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11328,18 +11679,20 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>408</v>
+        <v>230</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>559</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11388,7 +11741,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>249</v>
+        <v>562</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11397,10 +11750,10 @@
         <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>250</v>
+        <v>563</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11412,22 +11765,22 @@
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>251</v>
+        <v>564</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11443,19 +11796,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>138</v>
+        <v>567</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>253</v>
+        <v>568</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>140</v>
+        <v>569</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11481,13 +11834,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11505,7 +11858,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>257</v>
+        <v>572</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11514,10 +11867,10 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11529,53 +11882,53 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>251</v>
+        <v>564</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>396</v>
+        <v>574</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>397</v>
+        <v>575</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>140</v>
+        <v>576</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>146</v>
+        <v>577</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11600,13 +11953,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11624,19 +11977,19 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11648,18 +12001,18 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>134</v>
+        <v>581</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11679,21 +12032,21 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>596</v>
+        <v>189</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11717,13 +12070,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11741,7 +12094,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11765,18 +12118,18 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11796,19 +12149,23 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>408</v>
+        <v>189</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>247</v>
+        <v>593</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11832,13 +12189,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11856,7 +12213,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>249</v>
+        <v>599</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11865,10 +12222,10 @@
         <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11880,22 +12237,22 @@
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11911,20 +12268,18 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>137</v>
+        <v>445</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>138</v>
+        <v>603</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11973,7 +12328,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>257</v>
+        <v>605</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11985,7 +12340,7 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11997,54 +12352,50 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>251</v>
+        <v>606</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>137</v>
+        <v>408</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>396</v>
+        <v>247</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12092,19 +12443,19 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>604</v>
+        <v>249</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12116,7 +12467,7 @@
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12124,21 +12475,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -12150,15 +12501,17 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>508</v>
+        <v>137</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>614</v>
+        <v>138</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12195,31 +12548,31 @@
         <v>79</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>613</v>
+        <v>257</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12231,7 +12584,7 @@
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>616</v>
+        <v>251</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -12239,10 +12592,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12262,19 +12615,21 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>618</v>
+        <v>189</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12298,13 +12653,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12322,7 +12677,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12346,18 +12701,18 @@
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12377,19 +12732,23 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12425,19 +12784,17 @@
         <v>79</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="AC85" s="2"/>
       <c r="AD85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12461,20 +12818,22 @@
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>79</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="D86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12495,19 +12854,19 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>382</v>
+        <v>630</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12568,30 +12927,30 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>634</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>630</v>
+        <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>79</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12614,17 +12973,15 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>633</v>
+        <v>91</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>634</v>
+        <v>247</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12673,7 +13030,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>632</v>
+        <v>249</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12682,44 +13039,44 @@
         <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>638</v>
+        <v>251</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>640</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12731,15 +13088,17 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>508</v>
+        <v>137</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>641</v>
+        <v>138</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -12776,54 +13135,54 @@
         <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>640</v>
+        <v>257</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>644</v>
+        <v>251</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>645</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12843,21 +13202,23 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>618</v>
+        <v>474</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12905,7 +13266,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12923,24 +13284,24 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>650</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>79</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12951,32 +13312,36 @@
         <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12996,13 +13361,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>656</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>79</v>
+        <v>657</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13020,7 +13385,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13041,21 +13406,21 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13066,7 +13431,7 @@
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -13075,19 +13440,21 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>665</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
       </c>
@@ -13135,13 +13502,13 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
@@ -13159,18 +13526,18 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13190,19 +13557,21 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13226,11 +13595,13 @@
         <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y92" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z92" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>79</v>
@@ -13248,7 +13619,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -13257,7 +13628,7 @@
         <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>675</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>101</v>
@@ -13272,18 +13643,18 @@
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13303,19 +13674,23 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>596</v>
+        <v>109</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>682</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13339,13 +13714,11 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>79</v>
+        <v>683</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13363,7 +13736,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13372,7 +13745,7 @@
         <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>79</v>
+        <v>675</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>101</v>
@@ -13381,24 +13754,24 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>669</v>
+        <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13418,19 +13791,23 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>408</v>
+        <v>687</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>247</v>
+        <v>688</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>691</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13478,7 +13855,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>249</v>
+        <v>692</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13487,10 +13864,10 @@
         <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13502,22 +13879,22 @@
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>251</v>
+        <v>693</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>79</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13533,21 +13910,23 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>137</v>
+        <v>696</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>138</v>
+        <v>697</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>253</v>
+        <v>698</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13595,7 +13974,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>257</v>
+        <v>701</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13607,7 +13986,7 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
@@ -13619,53 +13998,53 @@
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>251</v>
+        <v>702</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>79</v>
+        <v>703</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>137</v>
+        <v>630</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>396</v>
+        <v>705</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>397</v>
+        <v>706</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>140</v>
+        <v>707</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>146</v>
+        <v>708</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -13714,19 +14093,19 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>604</v>
+        <v>709</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
@@ -13738,7 +14117,7 @@
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>134</v>
+        <v>710</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13746,10 +14125,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>674</v>
+        <v>711</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>674</v>
+        <v>711</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13757,7 +14136,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>89</v>
@@ -13769,21 +14148,21 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>675</v>
+        <v>630</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>713</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>714</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13807,13 +14186,13 @@
         <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>681</v>
+        <v>79</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>79</v>
@@ -13831,10 +14210,10 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>674</v>
+        <v>715</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>89</v>
@@ -13849,24 +14228,24 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>669</v>
+        <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>683</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13889,13 +14268,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>189</v>
+        <v>717</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13922,13 +14301,13 @@
         <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>687</v>
+        <v>79</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>688</v>
+        <v>79</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>79</v>
@@ -13946,7 +14325,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13964,24 +14343,24 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>169</v>
+        <v>720</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>690</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13992,7 +14371,7 @@
         <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -14004,17 +14383,15 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>692</v>
+        <v>408</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>693</v>
+        <v>247</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>695</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -14063,33 +14440,2708 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>691</v>
+        <v>249</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AI99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AO99" t="s" s="2">
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y115" s="2"/>
+      <c r="Z115" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="O122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-requests.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="825">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T14:03:26+00:00</t>
+    <t>2024-04-30T04:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1182,7 +1182,7 @@
 </t>
   </si>
   <si>
-    <t>Information about the prescription</t>
+    <t>CDA eMed v2: ZINFO || not machine readable Information about the MedicationRequests | nicht maschinenlesbare Informationen über die Verordnung</t>
   </si>
   <si>
     <t>Extra information about the prescription that could not be conveyed by the other attributes.</t>
@@ -1239,7 +1239,7 @@
 </t>
   </si>
   <si>
-    <t>Specific instructions for how the medication should be taken</t>
+    <t>One or more specific instructions for how the medication should be taken | Eine oder mehrere spezifische Anweisungen für die Einnahme des Medikaments</t>
   </si>
   <si>
     <t>Specific instructions for how the medication is to be used by the patient.</t>
@@ -1358,7 +1358,7 @@
     <t>MedicationRequest.dosageInstruction.patientInstruction</t>
   </si>
   <si>
-    <t>Patient or consumer oriented instructions</t>
+    <t>CDA eMed v2: ALTEIN || Patient or consumer oriented instructions | Patienten- oder verbraucherorientierte Anweisungen</t>
   </si>
   <si>
     <t>Instructions in terms that are understood by the patient or consumer.</t>
@@ -1374,7 +1374,7 @@
 </t>
   </si>
   <si>
-    <t>When medication should be administered | Wann Medikamente verabreicht werden sollten</t>
+    <t>When medication should be administered</t>
   </si>
   <si>
     <t>When medication should be administered.</t>
@@ -1702,7 +1702,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.when</t>
   </si>
   <si>
-    <t>Code for time period of occurrence</t>
+    <t>Code for time period of occurrence | Code für die Eintrittszeitspanne</t>
   </si>
   <si>
     <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
@@ -1783,7 +1783,7 @@
     <t>MedicationRequest.dosageInstruction.asNeeded</t>
   </si>
   <si>
-    <t>Take "as needed"</t>
+    <t>Take 'as needed' | Bedarfsmedikation</t>
   </si>
   <si>
     <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option).</t>
@@ -2040,7 +2040,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].value</t>
   </si>
   <si>
-    <t>Numerical value (with implicit precision)</t>
+    <t>Quantity per intake | Menge pro Einnahme</t>
   </si>
   <si>
     <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
@@ -2100,7 +2100,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
+    <t>Unit for quantity per intake | Einheit zur Menge pro Einnahme</t>
   </si>
   <si>
     <t>A human-readable form of the unit.</t>
@@ -2149,7 +2149,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
   </si>
   <si>
-    <t>ToDo look into last LINCA solution for doseQuantitiy</t>
+    <t>Coded form of the unit</t>
   </si>
   <si>
     <t>A computer processable form of the unit in some unit representation system.</t>
@@ -2159,9 +2159,6 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>https://termgit.elga.gv.at/ValueSet/elga-medikationdarreichungsform</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2191,6 +2188,9 @@
     <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
@@ -2200,13 +2200,38 @@
     <t>RXE22, RXE23, RXE-24</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRatio</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio
 </t>
   </si>
   <si>
+    <t>Do not use any rate element for repetitions, period or any other time related information. Use timing instead. | Verwenden Sie für Wiederholungen, Perioden oder andere zeitbezogene Informationen keine der rate-Elemente. Verwenden Sie stattdessen timing.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRange</t>
+  </si>
+  <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateQuantity</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+  </si>
+  <si>
     <t>Upper limit on medication per unit of time</t>
   </si>
   <si>
@@ -2380,7 +2405,7 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t>Number of refills authorized</t>
+    <t xml:space="preserve">	Number of refills authorized | Anzahl der genehmigten Einlösungen</t>
   </si>
   <si>
     <t>An integer indicating the number of times, in addition to the original dispense, (aka refills or repeats) that the patient can receive the prescribed medication. Usage Notes: This integer does not include the original order dispense. This means that if an order indicates dispense 30 tablets plus "3 repeats", then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.  A prescriber may explicitly say that zero refills are permitted after the initial dispense.</t>
@@ -2866,7 +2891,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO122"/>
+  <dimension ref="A1:AO125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13714,29 +13739,31 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y93" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13760,7 +13787,7 @@
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>668</v>
@@ -13768,10 +13795,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13794,19 +13821,19 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13843,16 +13870,14 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>79</v>
+        <v>691</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>692</v>
@@ -13890,9 +13915,11 @@
         <v>695</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13901,7 +13928,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13913,19 +13940,19 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13974,13 +14001,13 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
@@ -13998,20 +14025,22 @@
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>79</v>
       </c>
@@ -14020,7 +14049,7 @@
         <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -14032,19 +14061,19 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -14093,7 +14122,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -14117,20 +14146,22 @@
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>79</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>703</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>79</v>
       </c>
@@ -14139,7 +14170,7 @@
         <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -14148,20 +14179,22 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>630</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>712</v>
+        <v>631</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="O97" t="s" s="2">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -14210,7 +14243,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -14222,7 +14255,7 @@
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>101</v>
+        <v>634</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
@@ -14234,18 +14267,18 @@
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>710</v>
+        <v>635</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>79</v>
+        <v>636</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14256,7 +14289,7 @@
         <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>79</v>
@@ -14265,19 +14298,23 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>708</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
       </c>
@@ -14325,13 +14362,13 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>79</v>
@@ -14343,24 +14380,24 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>720</v>
+        <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>79</v>
+        <v>711</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14380,19 +14417,23 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>408</v>
+        <v>630</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>247</v>
+        <v>713</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
       </c>
@@ -14440,7 +14481,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>249</v>
+        <v>717</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14449,10 +14490,10 @@
         <v>89</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>79</v>
@@ -14464,7 +14505,7 @@
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14472,21 +14513,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
@@ -14495,21 +14536,21 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>137</v>
+        <v>630</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>138</v>
+        <v>720</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>722</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
       </c>
@@ -14557,19 +14598,19 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>257</v>
+        <v>723</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -14581,7 +14622,7 @@
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14596,39 +14637,35 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>137</v>
+        <v>725</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>396</v>
+        <v>726</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
       </c>
@@ -14676,31 +14713,31 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>79</v>
+        <v>728</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>134</v>
+        <v>729</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14708,10 +14745,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14734,17 +14771,15 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>717</v>
+        <v>408</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>727</v>
+        <v>247</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>729</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14793,7 +14828,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>726</v>
+        <v>249</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14802,10 +14837,10 @@
         <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
@@ -14817,7 +14852,7 @@
         <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>730</v>
+        <v>251</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14832,14 +14867,14 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
@@ -14851,15 +14886,17 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>408</v>
+        <v>137</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14908,19 +14945,19 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
@@ -14947,7 +14984,7 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>136</v>
+        <v>395</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14960,24 +14997,26 @@
         <v>79</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>253</v>
+        <v>397</v>
       </c>
       <c r="N104" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="O104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>79</v>
       </c>
@@ -15025,7 +15064,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>257</v>
+        <v>733</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -15049,7 +15088,7 @@
         <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>79</v>
@@ -15057,46 +15096,44 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>137</v>
+        <v>725</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>396</v>
+        <v>735</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>397</v>
+        <v>736</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>79</v>
       </c>
@@ -15144,19 +15181,19 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>79</v>
@@ -15168,7 +15205,7 @@
         <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>134</v>
+        <v>738</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>79</v>
@@ -15176,10 +15213,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15202,13 +15239,13 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>630</v>
+        <v>408</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>735</v>
+        <v>247</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>736</v>
+        <v>248</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15259,7 +15296,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>734</v>
+        <v>249</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -15268,10 +15305,10 @@
         <v>89</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>79</v>
@@ -15283,7 +15320,7 @@
         <v>79</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>737</v>
+        <v>251</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>79</v>
@@ -15291,21 +15328,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>79</v>
@@ -15317,15 +15354,17 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>739</v>
+        <v>137</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>740</v>
+        <v>138</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -15374,19 +15413,19 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>738</v>
+        <v>257</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>79</v>
@@ -15398,7 +15437,7 @@
         <v>79</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>742</v>
+        <v>251</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>79</v>
@@ -15406,42 +15445,46 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>739</v>
+        <v>137</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>744</v>
+        <v>396</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>79</v>
       </c>
@@ -15489,19 +15532,19 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>79</v>
@@ -15513,7 +15556,7 @@
         <v>79</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>742</v>
+        <v>134</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>79</v>
@@ -15521,10 +15564,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15547,20 +15590,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>382</v>
+        <v>630</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>750</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>79</v>
       </c>
@@ -15608,7 +15647,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15626,13 +15665,13 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>751</v>
+        <v>79</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>79</v>
@@ -15640,10 +15679,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15666,17 +15705,15 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>543</v>
+        <v>747</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>756</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>79</v>
@@ -15725,7 +15762,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15743,24 +15780,24 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>757</v>
+        <v>79</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>759</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15783,13 +15820,13 @@
         <v>79</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>630</v>
+        <v>747</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15840,7 +15877,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15858,24 +15895,24 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>763</v>
+        <v>79</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>765</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15898,18 +15935,20 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>739</v>
+        <v>382</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>757</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>758</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15957,7 +15996,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15975,13 +16014,13 @@
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>79</v>
@@ -15989,10 +16028,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16015,15 +16054,17 @@
         <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>773</v>
+        <v>543</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>763</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>764</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>79</v>
@@ -16072,7 +16113,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -16090,24 +16131,24 @@
         <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>79</v>
+        <v>765</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>79</v>
+        <v>767</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16118,7 +16159,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>79</v>
@@ -16130,13 +16171,13 @@
         <v>79</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>369</v>
+        <v>630</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16187,13 +16228,13 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>79</v>
@@ -16205,24 +16246,24 @@
         <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>79</v>
+        <v>771</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>79</v>
+        <v>773</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16245,15 +16286,17 @@
         <v>79</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>189</v>
+        <v>747</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>776</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>777</v>
+      </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>79</v>
@@ -16278,11 +16321,13 @@
         <v>79</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y115" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z115" t="s" s="2">
-        <v>784</v>
+        <v>79</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>79</v>
@@ -16300,7 +16345,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -16318,13 +16363,13 @@
         <v>79</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>79</v>
+        <v>778</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
@@ -16332,10 +16377,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16358,13 +16403,13 @@
         <v>79</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>717</v>
+        <v>781</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16415,7 +16460,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -16433,13 +16478,13 @@
         <v>79</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>789</v>
+        <v>79</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>79</v>
@@ -16447,10 +16492,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16461,7 +16506,7 @@
         <v>77</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>79</v>
@@ -16473,13 +16518,13 @@
         <v>79</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>247</v>
+        <v>786</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>248</v>
+        <v>787</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16530,19 +16575,19 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>249</v>
+        <v>785</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>79</v>
@@ -16554,7 +16599,7 @@
         <v>79</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>251</v>
+        <v>788</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>79</v>
@@ -16562,21 +16607,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>79</v>
@@ -16588,17 +16633,15 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>138</v>
+        <v>790</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>79</v>
@@ -16623,13 +16666,11 @@
         <v>79</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y118" s="2"/>
       <c r="Z118" t="s" s="2">
-        <v>79</v>
+        <v>792</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>79</v>
@@ -16647,19 +16688,19 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>257</v>
+        <v>789</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>79</v>
@@ -16671,7 +16712,7 @@
         <v>79</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>251</v>
+        <v>793</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>79</v>
@@ -16679,46 +16720,42 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>137</v>
+        <v>725</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>396</v>
+        <v>795</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>79</v>
       </c>
@@ -16766,31 +16803,31 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>725</v>
+        <v>794</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>79</v>
+        <v>797</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>134</v>
+        <v>798</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>79</v>
@@ -16798,10 +16835,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16809,7 +16846,7 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>89</v>
@@ -16824,17 +16861,15 @@
         <v>79</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>795</v>
+        <v>408</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>796</v>
+        <v>247</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>798</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>79</v>
@@ -16859,13 +16894,13 @@
         <v>79</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>799</v>
+        <v>79</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>800</v>
+        <v>79</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>79</v>
@@ -16883,53 +16918,53 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>794</v>
+        <v>249</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>789</v>
+        <v>79</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>801</v>
+        <v>251</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>802</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>79</v>
@@ -16941,15 +16976,17 @@
         <v>79</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>804</v>
+        <v>138</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -16974,13 +17011,13 @@
         <v>79</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>806</v>
+        <v>79</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>807</v>
+        <v>79</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
@@ -16998,46 +17035,46 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>803</v>
+        <v>257</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>808</v>
+        <v>251</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>809</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17050,24 +17087,26 @@
         <v>79</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>811</v>
+        <v>137</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>812</v>
+        <v>396</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>813</v>
+        <v>397</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
       </c>
@@ -17115,7 +17154,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>810</v>
+        <v>733</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -17127,21 +17166,370 @@
         <v>79</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK122" t="s" s="2">
+      <c r="AK123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="AL122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN122" t="s" s="2">
+      <c r="AA124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN124" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="AO122" t="s" s="2">
+      <c r="AO124" t="s" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AO125" t="s" s="2">
         <v>79</v>
       </c>
     </row>
